--- a/data/xlsx/02212019.xlsx
+++ b/data/xlsx/02212019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{314560D3-2260-BF40-8017-2910305BDB1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07D3AE2-6FB3-854F-A299-D31ACE4C49EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02212019" sheetId="1" r:id="rId1"/>
@@ -817,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -829,11 +829,10 @@
     <col min="2" max="2" width="8"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="5" width="19"/>
-    <col min="8" max="10" width="21"/>
-    <col min="11" max="11" width="13"/>
+    <col min="8" max="8" width="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -858,9 +857,8 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>43517</v>
       </c>
@@ -885,9 +883,8 @@
       <c r="H2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>43517</v>
       </c>
@@ -912,9 +909,8 @@
       <c r="H3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>43517</v>
       </c>
@@ -939,9 +935,8 @@
       <c r="H4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>43517</v>
       </c>
@@ -966,9 +961,8 @@
       <c r="H5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>43517</v>
       </c>
@@ -993,9 +987,8 @@
       <c r="H6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>43517</v>
       </c>
@@ -1020,9 +1013,8 @@
       <c r="H7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>43517</v>
       </c>
@@ -1047,10 +1039,8 @@
       <c r="H8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>43517</v>
       </c>
@@ -1075,9 +1065,8 @@
       <c r="H9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>43517</v>
       </c>
@@ -1102,9 +1091,8 @@
       <c r="H10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>43517</v>
       </c>
@@ -1129,9 +1117,8 @@
       <c r="H11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>43517</v>
       </c>
@@ -1156,9 +1143,8 @@
       <c r="H12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>43517</v>
       </c>
@@ -1183,9 +1169,8 @@
       <c r="H13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>43517</v>
       </c>
@@ -1210,10 +1195,8 @@
       <c r="H14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>43517</v>
       </c>
@@ -1238,10 +1221,8 @@
       <c r="H15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>43517</v>
       </c>
@@ -1266,9 +1247,8 @@
       <c r="H16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>43517</v>
       </c>
@@ -1293,9 +1273,8 @@
       <c r="H17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>43517</v>
       </c>
@@ -1320,9 +1299,8 @@
       <c r="H18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>43517</v>
       </c>
@@ -1347,9 +1325,8 @@
       <c r="H19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>43517</v>
       </c>
@@ -1374,9 +1351,8 @@
       <c r="H20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>43517</v>
       </c>
@@ -1401,9 +1377,8 @@
       <c r="H21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>43517</v>
       </c>
@@ -1428,9 +1403,8 @@
       <c r="H22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>43517</v>
       </c>
@@ -1455,9 +1429,8 @@
       <c r="H23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>43517</v>
       </c>
@@ -1482,9 +1455,8 @@
       <c r="H24" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>43517</v>
       </c>
@@ -1509,9 +1481,8 @@
       <c r="H25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>43517</v>
       </c>
@@ -1536,9 +1507,8 @@
       <c r="H26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>43517</v>
       </c>
@@ -1563,9 +1533,8 @@
       <c r="H27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>43517</v>
       </c>
@@ -1590,9 +1559,8 @@
       <c r="H28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="3">
         <v>43517</v>
       </c>
@@ -1617,9 +1585,8 @@
       <c r="H29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>43517</v>
       </c>
@@ -1644,10 +1611,8 @@
       <c r="H30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="3">
         <v>43517</v>
       </c>
@@ -1672,9 +1637,8 @@
       <c r="H31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="3">
         <v>43517</v>
       </c>
@@ -1699,9 +1663,8 @@
       <c r="H32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="3">
         <v>43517</v>
       </c>
@@ -1726,9 +1689,8 @@
       <c r="H33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="3">
         <v>43517</v>
       </c>
@@ -1753,7 +1715,6 @@
       <c r="H34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/02212019.xlsx
+++ b/data/xlsx/02212019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07D3AE2-6FB3-854F-A299-D31ACE4C49EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D4554A-D015-D549-B24F-917F57B2BCE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,6 +437,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -478,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
